--- a/src/data/Public-Dataset-Age.XLSX
+++ b/src/data/Public-Dataset-Age.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1179</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1189</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1179"/>
+  <dimension ref="A1:H1189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -32103,6 +32103,286 @@
         <v>0</v>
       </c>
     </row>
+    <row outlineLevel="0" r="1180">
+      <c r="A1180" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1180" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C1180" s="0">
+        <v>3238</v>
+      </c>
+      <c r="D1180" s="0">
+        <v>4.52613922281241E-02</v>
+      </c>
+      <c r="E1180" s="0">
+        <v>118</v>
+      </c>
+      <c r="F1180" s="0">
+        <v>4.75998386446148E-02</v>
+      </c>
+      <c r="G1180" s="0">
+        <v>3</v>
+      </c>
+      <c r="H1180" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1181">
+      <c r="A1181" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1181" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C1181" s="0">
+        <v>7647</v>
+      </c>
+      <c r="D1181" s="0">
+        <v>0.106891249650545</v>
+      </c>
+      <c r="E1181" s="0">
+        <v>391</v>
+      </c>
+      <c r="F1181" s="0">
+        <v>0.157724889068173</v>
+      </c>
+      <c r="G1181" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1181" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1182">
+      <c r="A1182" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1182" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C1182" s="0">
+        <v>17151</v>
+      </c>
+      <c r="D1182" s="0">
+        <v>0.239740005591278</v>
+      </c>
+      <c r="E1182" s="0">
+        <v>623</v>
+      </c>
+      <c r="F1182" s="0">
+        <v>0.251311012505042</v>
+      </c>
+      <c r="G1182" s="0">
+        <v>12</v>
+      </c>
+      <c r="H1182" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1183">
+      <c r="A1183" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1183" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C1183" s="0">
+        <v>13769</v>
+      </c>
+      <c r="D1183" s="0">
+        <v>0.192465753424658</v>
+      </c>
+      <c r="E1183" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1183" s="0">
+        <v>0.156514723678903</v>
+      </c>
+      <c r="G1183" s="0">
+        <v>14</v>
+      </c>
+      <c r="H1183" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1184">
+      <c r="A1184" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1184" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C1184" s="0">
+        <v>11344</v>
+      </c>
+      <c r="D1184" s="0">
+        <v>0.158568632932625</v>
+      </c>
+      <c r="E1184" s="0">
+        <v>319</v>
+      </c>
+      <c r="F1184" s="0">
+        <v>0.128680919725696</v>
+      </c>
+      <c r="G1184" s="0">
+        <v>38</v>
+      </c>
+      <c r="H1184" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1185">
+      <c r="A1185" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1185" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C1185" s="0">
+        <v>8909</v>
+      </c>
+      <c r="D1185" s="0">
+        <v>0.124531730500419</v>
+      </c>
+      <c r="E1185" s="0">
+        <v>288</v>
+      </c>
+      <c r="F1185" s="0">
+        <v>0.116175877369907</v>
+      </c>
+      <c r="G1185" s="0">
+        <v>84</v>
+      </c>
+      <c r="H1185" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1186">
+      <c r="A1186" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1186" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C1186" s="0">
+        <v>5152</v>
+      </c>
+      <c r="D1186" s="0">
+        <v>7.20156555772994E-02</v>
+      </c>
+      <c r="E1186" s="0">
+        <v>200</v>
+      </c>
+      <c r="F1186" s="0">
+        <v>8.06776926179911E-02</v>
+      </c>
+      <c r="G1186" s="0">
+        <v>151</v>
+      </c>
+      <c r="H1186" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1187">
+      <c r="A1187" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1187" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C1187" s="0">
+        <v>2666</v>
+      </c>
+      <c r="D1187" s="0">
+        <v>3.72658652502097E-02</v>
+      </c>
+      <c r="E1187" s="0">
+        <v>83</v>
+      </c>
+      <c r="F1187" s="0">
+        <v>3.34812424364663E-02</v>
+      </c>
+      <c r="G1187" s="0">
+        <v>233</v>
+      </c>
+      <c r="H1187" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1188">
+      <c r="A1188" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1188" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C1188" s="0">
+        <v>1491</v>
+      </c>
+      <c r="D1188" s="0">
+        <v>2.08414872798434E-02</v>
+      </c>
+      <c r="E1188" s="0">
+        <v>52</v>
+      </c>
+      <c r="F1188" s="0">
+        <v>2.09762000806777E-02</v>
+      </c>
+      <c r="G1188" s="0">
+        <v>261</v>
+      </c>
+      <c r="H1188" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1189">
+      <c r="A1189" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1189" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C1189" s="0">
+        <v>173</v>
+      </c>
+      <c r="D1189" s="0">
+        <v>2.4182275649986E-03</v>
+      </c>
+      <c r="E1189" s="0">
+        <v>17</v>
+      </c>
+      <c r="F1189" s="0">
+        <v>6.85760387252925E-03</v>
+      </c>
+      <c r="G1189" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1189" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
